--- a/public/userdata.xlsx
+++ b/public/userdata.xlsx
@@ -5,15 +5,15 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCODE\LugeDemo\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36780" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="500"/>
+    <workbookView xWindow="1245" yWindow="765" windowWidth="21855" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>梁立峰</t>
     <rPh sb="0" eb="1">
@@ -946,13 +946,383 @@
       <t>pei shan</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1001.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1002.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1003.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1004.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1005.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1006.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1007.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1008.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1009.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1010.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1011.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1012.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1013.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1014.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1015.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1016.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1017.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1018.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1019.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1020.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1021.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1022.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1023.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1024.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1025.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1026.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1027.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1028.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1029.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1030.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1031.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1032.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1033.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1034.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1035.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1036.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1037.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1038.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1039.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1040.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1041.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1042.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1043.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1044.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1045.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1046.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1047.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1048.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1049.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1050.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1051.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1052.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1053.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1054.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1055.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1056.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1057.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1058.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1059.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1060.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1061.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1062.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1063.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1064.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2001.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2002.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2003.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2004.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2005.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2006.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2007.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2008.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2009.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2010.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2011.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2012.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2013.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2014.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2015.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2016.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2017.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2018.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2019.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2020.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2021.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2022.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2023.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2024.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2025.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2026.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2027.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2028.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2029.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2030.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2031.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2032.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2033.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2034.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1065.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈超一</t>
+    <rPh sb="0" eb="1">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1066.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖芳</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1067.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>周期灵</t>
+    <rPh sb="2" eb="3">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1068.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+    <rPh sb="0" eb="1">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1069.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>通用来宾</t>
+    <rPh sb="0" eb="1">
+      <t>tong yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai bing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/9999.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -981,6 +1351,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1005,10 +1399,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1022,9 +1417,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1302,23 +1711,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="112.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1001</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1334,6 +1747,9 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -1348,6 +1764,9 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -1362,6 +1781,9 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1376,6 +1798,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1390,6 +1815,9 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1404,6 +1832,9 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1418,6 +1849,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1432,6 +1866,9 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1446,6 +1883,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -1460,6 +1900,9 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -1474,6 +1917,9 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1488,6 +1934,9 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -1502,6 +1951,9 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1516,6 +1968,9 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1530,6 +1985,9 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -1544,6 +2002,9 @@
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -1558,6 +2019,9 @@
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="D18">
         <v>0</v>
       </c>
@@ -1572,6 +2036,9 @@
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C19" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
@@ -1586,6 +2053,9 @@
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D20">
         <v>0</v>
       </c>
@@ -1600,6 +2070,9 @@
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C21" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="D21">
         <v>0</v>
       </c>
@@ -1614,6 +2087,9 @@
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -1628,6 +2104,9 @@
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -1642,6 +2121,9 @@
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -1656,6 +2138,9 @@
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1670,6 +2155,9 @@
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C26" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
@@ -1684,6 +2172,9 @@
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="D27">
         <v>0</v>
       </c>
@@ -1698,6 +2189,9 @@
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C28" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D28">
         <v>0</v>
       </c>
@@ -1712,6 +2206,9 @@
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C29" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
@@ -1726,6 +2223,9 @@
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C30" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="D30">
         <v>0</v>
       </c>
@@ -1740,6 +2240,9 @@
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C31" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="D31">
         <v>0</v>
       </c>
@@ -1754,6 +2257,9 @@
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C32" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D32">
         <v>0</v>
       </c>
@@ -1768,6 +2274,9 @@
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C33" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D33">
         <v>0</v>
       </c>
@@ -1782,6 +2291,9 @@
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C34" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D34">
         <v>0</v>
       </c>
@@ -1796,6 +2308,9 @@
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C35" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D35">
         <v>0</v>
       </c>
@@ -1810,6 +2325,9 @@
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C36" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="D36">
         <v>0</v>
       </c>
@@ -1824,6 +2342,9 @@
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C37" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D37">
         <v>0</v>
       </c>
@@ -1838,6 +2359,9 @@
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C38" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -1852,6 +2376,9 @@
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C39" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D39">
         <v>0</v>
       </c>
@@ -1866,6 +2393,9 @@
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C40" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="D40">
         <v>0</v>
       </c>
@@ -1880,6 +2410,9 @@
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C41" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="D41">
         <v>0</v>
       </c>
@@ -1894,6 +2427,9 @@
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C42" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="D42">
         <v>0</v>
       </c>
@@ -1908,6 +2444,9 @@
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="D43">
         <v>0</v>
       </c>
@@ -1922,6 +2461,9 @@
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C44" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -1936,6 +2478,9 @@
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C45" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="D45">
         <v>0</v>
       </c>
@@ -1950,6 +2495,9 @@
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C46" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="D46">
         <v>0</v>
       </c>
@@ -1964,6 +2512,9 @@
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C47" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="D47">
         <v>0</v>
       </c>
@@ -1978,6 +2529,9 @@
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C48" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D48">
         <v>0</v>
       </c>
@@ -1992,6 +2546,9 @@
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C49" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D49">
         <v>0</v>
       </c>
@@ -2006,6 +2563,9 @@
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C50" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="D50">
         <v>0</v>
       </c>
@@ -2020,6 +2580,9 @@
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C51" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D51">
         <v>0</v>
       </c>
@@ -2034,6 +2597,9 @@
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C52" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D52">
         <v>0</v>
       </c>
@@ -2048,6 +2614,9 @@
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C53" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="D53">
         <v>0</v>
       </c>
@@ -2062,6 +2631,9 @@
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D54">
         <v>0</v>
       </c>
@@ -2076,6 +2648,9 @@
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C55" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="D55">
         <v>0</v>
       </c>
@@ -2090,6 +2665,9 @@
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C56" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="D56">
         <v>0</v>
       </c>
@@ -2104,6 +2682,9 @@
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C57" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D57">
         <v>0</v>
       </c>
@@ -2118,6 +2699,9 @@
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C58" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D58">
         <v>0</v>
       </c>
@@ -2132,6 +2716,9 @@
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C59" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D59">
         <v>0</v>
       </c>
@@ -2146,6 +2733,9 @@
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C60" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="D60">
         <v>0</v>
       </c>
@@ -2160,6 +2750,9 @@
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C61" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="D61">
         <v>0</v>
       </c>
@@ -2174,6 +2767,9 @@
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C62" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D62">
         <v>0</v>
       </c>
@@ -2188,6 +2784,9 @@
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C63" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D63">
         <v>0</v>
       </c>
@@ -2202,6 +2801,9 @@
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C64" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D64">
         <v>0</v>
       </c>
@@ -2216,6 +2818,9 @@
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C65" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="D65">
         <v>0</v>
       </c>
@@ -2223,68 +2828,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>2001</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>2002</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>2003</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>2004</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
+        <v>1066</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>1067</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
+        <v>1068</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>1069</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2295,10 +2915,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>2006</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>70</v>
+        <v>2002</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2309,10 +2932,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2323,10 +2949,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>2008</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>2004</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2337,10 +2966,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>2009</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>2005</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2351,10 +2983,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>2010</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>2006</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2365,10 +3000,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2379,10 +3017,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>2012</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>2008</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2393,10 +3034,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>2013</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>2009</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2407,10 +3051,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2421,10 +3068,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>2015</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>96</v>
+        <v>2011</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2435,10 +3085,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2449,10 +3102,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2463,10 +3119,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2477,10 +3136,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>2019</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>2015</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2491,10 +3153,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2505,10 +3170,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2519,10 +3187,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2533,10 +3204,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2547,10 +3221,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2561,10 +3238,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2575,10 +3255,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2589,10 +3272,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2603,10 +3289,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2617,10 +3306,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2631,10 +3323,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>2030</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>91</v>
+        <v>2026</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2645,10 +3340,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2659,10 +3357,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2673,10 +3374,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>2033</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>94</v>
+        <v>2029</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2687,20 +3391,116 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99">
+        <v>2030</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>2031</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>2032</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>2033</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>2034</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
+      <c r="C103" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
+        <v>9999</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0</v>
+      </c>
+      <c r="E104" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C70" r:id="rId2"/>
+    <hyperlink ref="C71:C103" r:id="rId3" display="https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2001.JPG?x-oss-process=style/mystyle"/>
+    <hyperlink ref="C66" r:id="rId4"/>
+    <hyperlink ref="C67:C107" r:id="rId5" display="https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1066.JPG?x-oss-process=style/mystyle"/>
+    <hyperlink ref="C104" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2709,9 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/public/userdata.xlsx
+++ b/public/userdata.xlsx
@@ -2,23 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="765" windowWidth="21855" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +31,11 @@
     <rPh sb="2" eb="3">
       <t>feng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1001.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陈嘉慧</t>
@@ -50,7 +48,7 @@
     <rPh sb="2" eb="3">
       <t>hui</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黄才红</t>
@@ -63,14 +61,17 @@
     <rPh sb="2" eb="3">
       <t>hong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1003.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>冯洪鹏</t>
     <rPh sb="0" eb="1">
       <t>feng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高文平</t>
@@ -83,7 +84,10 @@
     <rPh sb="2" eb="3">
       <t>ping</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1005.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>郭美霞</t>
@@ -96,7 +100,10 @@
     <rPh sb="2" eb="3">
       <t>xia</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1006.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>黄柯</t>
@@ -106,7 +113,10 @@
     <rPh sb="1" eb="2">
       <t>ke</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1007.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>黄旭天</t>
@@ -119,7 +129,10 @@
     <rPh sb="2" eb="3">
       <t>tian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1008.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>黄治旺</t>
@@ -132,7 +145,10 @@
     <rPh sb="2" eb="3">
       <t>wang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1009.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>黄浩鑫</t>
@@ -145,7 +161,10 @@
     <rPh sb="2" eb="3">
       <t>xin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1010.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>李焙华</t>
@@ -158,7 +177,10 @@
     <rPh sb="2" eb="3">
       <t>hua</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1011.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>梁春燕</t>
@@ -168,7 +190,10 @@
     <rPh sb="2" eb="3">
       <t>yan zi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1012.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>梁华兴</t>
@@ -181,7 +206,10 @@
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1013.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>陈春光</t>
@@ -191,7 +219,10 @@
     <rPh sb="1" eb="2">
       <t>chun guang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1014.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>林洪杰</t>
@@ -204,7 +235,10 @@
     <rPh sb="2" eb="3">
       <t>jie zuo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1015.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>刘禄尤</t>
@@ -217,7 +251,10 @@
     <rPh sb="2" eb="3">
       <t>you</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1016.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>罗锦成</t>
@@ -230,7 +267,10 @@
     <rPh sb="2" eb="3">
       <t>cheng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1017.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>罗伟芝</t>
@@ -243,7 +283,10 @@
     <rPh sb="2" eb="3">
       <t>zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1018.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>罗巧莹</t>
@@ -256,7 +299,10 @@
     <rPh sb="2" eb="3">
       <t>ying</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1019.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>甄胜</t>
@@ -266,7 +312,10 @@
     <rPh sb="1" eb="2">
       <t>sheng li</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1020.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>林小强</t>
@@ -279,7 +328,10 @@
     <rPh sb="2" eb="3">
       <t>qiang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1021.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>田青</t>
@@ -289,7 +341,10 @@
     <rPh sb="1" eb="2">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1022.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>叶嘉家</t>
@@ -302,7 +357,10 @@
     <rPh sb="2" eb="3">
       <t>jia</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1023.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>吴金富</t>
@@ -315,7 +373,10 @@
     <rPh sb="2" eb="3">
       <t>fu gui</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1024.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>吴裕囊</t>
@@ -328,7 +389,10 @@
     <rPh sb="2" eb="3">
       <t>nang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1025.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>吴志恒</t>
@@ -338,7 +402,10 @@
     <rPh sb="1" eb="2">
       <t>zhi heng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1026.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>谢杰艺</t>
@@ -351,7 +418,10 @@
     <rPh sb="2" eb="3">
       <t>yi shu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1027.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>陈仪伟</t>
@@ -364,7 +434,10 @@
     <rPh sb="2" eb="3">
       <t>wei da</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1028.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>曾雄伟</t>
@@ -377,7 +450,10 @@
     <rPh sb="2" eb="3">
       <t>wei da</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1029.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>蔡春宁</t>
@@ -387,7 +463,10 @@
     <rPh sb="1" eb="2">
       <t>chun ning</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1030.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>臧亚东</t>
@@ -397,7 +476,10 @@
     <rPh sb="1" eb="2">
       <t>ya dong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1031.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>陈满娇</t>
@@ -410,7 +492,10 @@
     <rPh sb="2" eb="3">
       <t>jiao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1032.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>陈孟轩</t>
@@ -423,7 +508,10 @@
     <rPh sb="2" eb="3">
       <t>xuan ge</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1033.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>邓磊</t>
@@ -433,7 +521,10 @@
     <rPh sb="1" eb="2">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1034.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>邓泳君</t>
@@ -446,7 +537,10 @@
     <rPh sb="2" eb="3">
       <t>jun</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1035.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>何炬江</t>
@@ -459,7 +553,10 @@
     <rPh sb="2" eb="3">
       <t>jiang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1036.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>黄伟昌</t>
@@ -472,7 +569,10 @@
     <rPh sb="2" eb="3">
       <t>chang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1037.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>黄雪华</t>
@@ -485,7 +585,10 @@
     <rPh sb="2" eb="3">
       <t>hua</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1038.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>李嘉强</t>
@@ -498,7 +601,10 @@
     <rPh sb="2" eb="3">
       <t>qiang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1039.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>李夏辉</t>
@@ -511,7 +617,10 @@
     <rPh sb="2" eb="3">
       <t>hui</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1040.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>刘琦</t>
@@ -521,7 +630,10 @@
     <rPh sb="1" eb="2">
       <t>qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1041.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>骆萍容</t>
@@ -534,7 +646,10 @@
     <rPh sb="2" eb="3">
       <t>rong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1042.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>骆云龙</t>
@@ -544,7 +659,10 @@
     <rPh sb="1" eb="2">
       <t>yun long</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1043.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>吴欧健</t>
@@ -557,7 +675,10 @@
     <rPh sb="2" eb="3">
       <t>jian kang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1044.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>毛小阳</t>
@@ -567,7 +688,10 @@
     <rPh sb="1" eb="2">
       <t>xiao yang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1045.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>孟舒</t>
@@ -577,7 +701,10 @@
     <rPh sb="1" eb="2">
       <t>shu fu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1046.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>裴陶陶</t>
@@ -587,7 +714,10 @@
     <rPh sb="1" eb="2">
       <t>tao tao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1047.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>宋超</t>
@@ -597,7 +727,10 @@
     <rPh sb="1" eb="2">
       <t>chao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1048.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>王楚鸿</t>
@@ -610,7 +743,10 @@
     <rPh sb="2" eb="3">
       <t>hong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1049.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>王弘</t>
@@ -620,7 +756,10 @@
     <rPh sb="1" eb="2">
       <t>hong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1050.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>王铭浩</t>
@@ -633,7 +772,10 @@
     <rPh sb="2" eb="3">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1051.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>郑芝娜</t>
@@ -646,7 +788,10 @@
     <rPh sb="2" eb="3">
       <t>na</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1052.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>吴展威</t>
@@ -659,14 +804,20 @@
     <rPh sb="2" eb="3">
       <t>wei feng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1053.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>谢鹏</t>
     <rPh sb="0" eb="1">
       <t>xie peng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1054.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>杨博</t>
@@ -676,7 +827,10 @@
     <rPh sb="1" eb="2">
       <t>bo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1055.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>叶红玲</t>
@@ -689,7 +843,10 @@
     <rPh sb="2" eb="3">
       <t>ling</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1056.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>叶嘉鹏</t>
@@ -699,7 +856,10 @@
     <rPh sb="1" eb="2">
       <t>jia peng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1057.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>余键设</t>
@@ -712,7 +872,10 @@
     <rPh sb="2" eb="3">
       <t>she</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1058.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>占发</t>
@@ -722,7 +885,10 @@
     <rPh sb="1" eb="2">
       <t>fa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1059.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>卓志辉</t>
@@ -732,7 +898,10 @@
     <rPh sb="1" eb="2">
       <t>zhi hui</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1060.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>杨扬</t>
@@ -742,7 +911,10 @@
     <rPh sb="1" eb="2">
       <t>yang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1061.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>高杰健</t>
@@ -755,7 +927,10 @@
     <rPh sb="2" eb="3">
       <t>jian kang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1062.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>李笑萍</t>
@@ -768,7 +943,10 @@
     <rPh sb="2" eb="3">
       <t>ping</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1063.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>陈佳丽</t>
@@ -778,7 +956,10 @@
     <rPh sb="1" eb="2">
       <t>jia li</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1064.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>刘文波</t>
@@ -791,514 +972,321 @@
     <rPh sb="2" eb="3">
       <t>bo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1065.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈超一</t>
+    <rPh sb="0" eb="1">
+      <t>chen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1066.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖芳</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1067.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>周期灵</t>
+    <rPh sb="2" eb="3">
+      <t>ling</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1068.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+    <rPh sb="0" eb="1">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1069.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>周永媚</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2001.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>曹丽芳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2002.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>梁雅仪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2003.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>陈妙娜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2004.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>方丹虹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2005.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>黄瑀莹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2006.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>简泳诗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2007.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>吴丽仪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2008.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>何卓峰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2009.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>杨伟明</t>
+    <rPh sb="0" eb="1">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2010.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>袁卫东</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2011.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>林华柱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2012.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>李丽君</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2013.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>武宁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2014.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>张颖</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2015.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>赵可心</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2016.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>曾素娴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2017.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>苏晓虹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2018.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>郭凯迪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2019.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>梁淑仪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2020.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>肖燚</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2021.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>陈佩茵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2022.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>廖晓兰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2023.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>江明月</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2024.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>王宝如</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2025.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>蔡巧欣</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2026.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>范小波</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2027.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>杜安琪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2028.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>郑佩珊</t>
+    <rPh sb="0" eb="1">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pei shan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2029.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>廖维</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2030.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>谭琪琪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2031.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>韦颂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2032.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>陈剑英</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2033.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
     <t>joey</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>张颖</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨伟明</t>
-    <rPh sb="0" eb="1">
-      <t>yang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑佩珊</t>
-    <rPh sb="0" eb="1">
-      <t>zheng</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pei shan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1001.JPG?x-oss-process=style/mystyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1002.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1003.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1004.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1005.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1006.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1007.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1008.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1009.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1010.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1011.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1012.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1013.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1014.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1015.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1016.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1017.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1018.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1019.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1020.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1021.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1022.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1023.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1024.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1025.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1026.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1027.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1028.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1029.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1030.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1031.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1032.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1033.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1034.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1035.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1036.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1037.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1038.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1039.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1040.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1041.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1042.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1043.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1044.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1045.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1046.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1047.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1048.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1049.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1050.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1051.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1052.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1053.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1054.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1055.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1056.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1057.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1058.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1059.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1060.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1061.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1062.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1063.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1064.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2001.JPG?x-oss-process=style/mystyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2002.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2003.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2004.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2005.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2006.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2007.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2008.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2009.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2010.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2011.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2012.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2013.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2014.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2015.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2016.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2017.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2018.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2019.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2020.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2021.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2022.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2023.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2024.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2025.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2026.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2027.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2028.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2029.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2030.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2031.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2032.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2033.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
     <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2034.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1065.JPG?x-oss-process=style/mystyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈超一</t>
-    <rPh sb="0" eb="1">
-      <t>chen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>chao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1066.JPG?x-oss-process=style/mystyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖芳</t>
-    <rPh sb="0" eb="1">
-      <t>xiao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1067.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>周期灵</t>
-    <rPh sb="2" eb="3">
-      <t>ling</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1068.JPG?x-oss-process=style/mystyle</t>
-  </si>
-  <si>
-    <t>孙岚</t>
-    <rPh sb="0" eb="1">
-      <t>sun</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1069.JPG?x-oss-process=style/mystyle</t>
   </si>
   <si>
     <t>通用来宾</t>
@@ -1311,39 +1299,46 @@
     <rPh sb="3" eb="4">
       <t>bin</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1002.JPG?x-oss-process=style/mystyle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1004.JPG?x-oss-process=style/mystyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/9999.JPG?x-oss-process=style/mystyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1351,43 +1346,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1399,44 +1364,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1449,7 +1387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1494,9 +1432,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1529,9 +1467,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1713,25 +1651,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="112.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="101.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1001</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>99</v>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1740,15 +1677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1002</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>100</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1757,15 +1694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1003</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>101</v>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1774,15 +1711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1004</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>102</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1791,15 +1728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1005</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>103</v>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1808,15 +1745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1006</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>104</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1825,15 +1762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1007</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>105</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1842,15 +1779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1008</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>106</v>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1859,15 +1796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1009</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>107</v>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1876,15 +1813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1010</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>108</v>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1893,15 +1830,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1011</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1910,15 +1847,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1012</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>110</v>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1927,15 +1864,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1013</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>111</v>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1944,15 +1881,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1014</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>112</v>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1961,15 +1898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1015</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>113</v>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1978,15 +1915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1016</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>114</v>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1995,15 +1932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1017</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>115</v>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2012,15 +1949,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1018</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>116</v>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2029,15 +1966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1019</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>117</v>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2046,15 +1983,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1020</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>118</v>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2063,15 +2000,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1021</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>119</v>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2080,15 +2017,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1022</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>120</v>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2097,15 +2034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1023</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>121</v>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2114,15 +2051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1024</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>122</v>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2131,15 +2068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1025</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>123</v>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2148,15 +2085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1026</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>124</v>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2165,15 +2102,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1027</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>125</v>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2182,15 +2119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1028</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>126</v>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2199,15 +2136,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1029</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>127</v>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2216,15 +2153,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1030</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>128</v>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2233,15 +2170,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1031</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>129</v>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2250,15 +2187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1032</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>130</v>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2267,15 +2204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1033</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>131</v>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2284,15 +2221,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1034</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>132</v>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2301,15 +2238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1035</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>133</v>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2318,15 +2255,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1036</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>134</v>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2335,15 +2272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1037</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>135</v>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2352,15 +2289,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1038</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>136</v>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2369,15 +2306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1039</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>137</v>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2386,15 +2323,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1040</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>138</v>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2403,15 +2340,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1041</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>139</v>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2420,15 +2357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1042</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>140</v>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2437,15 +2374,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1043</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>141</v>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2454,15 +2391,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1044</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>142</v>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2471,15 +2408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1045</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>143</v>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2488,15 +2425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1046</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>144</v>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2505,15 +2442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1047</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>145</v>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2522,15 +2459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1048</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>146</v>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2539,15 +2476,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1049</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>147</v>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2556,15 +2493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1050</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>148</v>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2573,15 +2510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1051</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>149</v>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2590,15 +2527,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1052</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>150</v>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2607,15 +2544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1053</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>151</v>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2624,15 +2561,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1054</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>152</v>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2641,15 +2578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1055</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>153</v>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2658,15 +2595,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1056</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>154</v>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2675,15 +2612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1057</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>155</v>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2692,15 +2629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1058</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>156</v>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2709,15 +2646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1059</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>157</v>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2726,15 +2663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1060</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>158</v>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2743,15 +2680,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1061</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>159</v>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2760,15 +2697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1062</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>160</v>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2777,15 +2714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1063</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>161</v>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2794,15 +2731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1064</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>162</v>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2811,15 +2748,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1065</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>197</v>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2828,83 +2765,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>1066</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="7">
-        <v>0</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>1067</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="7">
-        <v>0</v>
-      </c>
-      <c r="E67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>1068</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="7">
-        <v>0</v>
-      </c>
-      <c r="E68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>1069</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2001</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>163</v>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2913,15 +2850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2002</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>164</v>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2930,15 +2867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2003</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>165</v>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2947,15 +2884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2004</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>166</v>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2964,15 +2901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2005</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>167</v>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2981,15 +2918,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2006</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>168</v>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>147</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2998,15 +2935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2007</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>169</v>
+      <c r="B76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3015,15 +2952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2008</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>170</v>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3032,15 +2969,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2009</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>171</v>
+      <c r="B78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3049,15 +2986,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2010</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>172</v>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3066,15 +3003,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2011</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>173</v>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3083,15 +3020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2012</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>174</v>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3100,15 +3037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2013</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>175</v>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3117,15 +3054,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2014</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>176</v>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3134,15 +3071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2015</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>177</v>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3151,15 +3088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2016</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>178</v>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3168,15 +3105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2017</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>179</v>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3185,15 +3122,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2018</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>180</v>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3202,15 +3139,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2019</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>181</v>
+      <c r="B88" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>173</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3219,15 +3156,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2020</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>182</v>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" t="s">
+        <v>175</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3236,15 +3173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2021</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>183</v>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3253,15 +3190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2022</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>184</v>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3270,15 +3207,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2023</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>185</v>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3287,15 +3224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2024</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>186</v>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3304,15 +3241,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2025</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>187</v>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3321,15 +3258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2026</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>188</v>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3338,14 +3275,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2027</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
         <v>189</v>
       </c>
       <c r="D96">
@@ -3355,16 +3292,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2028</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" t="s">
         <v>190</v>
       </c>
+      <c r="C97" t="s">
+        <v>191</v>
+      </c>
       <c r="D97">
         <v>0</v>
       </c>
@@ -3372,15 +3309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2029</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>191</v>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3389,15 +3326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2030</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>192</v>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3406,15 +3343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2031</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>193</v>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3423,15 +3360,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2032</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>194</v>
+      <c r="B101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>199</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3440,15 +3377,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2033</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>195</v>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>201</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3457,15 +3394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2034</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>196</v>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3474,46 +3411,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="7">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>9999</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" t="s">
         <v>207</v>
       </c>
-      <c r="D104" s="7">
-        <v>0</v>
-      </c>
-      <c r="E104" s="7">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C70" r:id="rId2"/>
-    <hyperlink ref="C71:C103" r:id="rId3" display="https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2001.JPG?x-oss-process=style/mystyle"/>
-    <hyperlink ref="C66" r:id="rId4"/>
-    <hyperlink ref="C67:C107" r:id="rId5" display="https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/1066.JPG?x-oss-process=style/mystyle"/>
-    <hyperlink ref="C104" r:id="rId6"/>
+    <hyperlink ref="C104" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/userdata.xlsx
+++ b/public/userdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>梁立峰</t>
     <rPh sb="0" eb="1">
@@ -1312,6 +1312,20 @@
   <si>
     <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/9999.JPG?x-oss-process=style/mystyle</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lily</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2035.JPG?x-oss-process=style/mystyle</t>
+  </si>
+  <si>
+    <t>曹佳仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2036.JPG?x-oss-process=style/mystyle</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1381,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1649,25 +1664,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="101.75" customWidth="1"/>
+    <col min="3" max="3" width="101.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1001</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
@@ -1676,15 +1691,18 @@
       <c r="E1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1002</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D2">
@@ -1693,15 +1711,18 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1003</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3">
@@ -1710,15 +1731,18 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1004</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D4">
@@ -1727,15 +1751,18 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1005</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5">
@@ -1744,15 +1771,18 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1006</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -1761,15 +1791,18 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1007</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7">
@@ -1778,15 +1811,18 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1008</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8">
@@ -1795,15 +1831,18 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1009</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9">
@@ -1812,15 +1851,18 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1010</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10">
@@ -1829,15 +1871,18 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1011</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11">
@@ -1846,15 +1891,18 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1012</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D12">
@@ -1863,15 +1911,18 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13">
@@ -1880,15 +1931,18 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1014</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14">
@@ -1897,15 +1951,18 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1015</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15">
@@ -1914,15 +1971,18 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1016</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D16">
@@ -1931,15 +1991,18 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1017</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D17">
@@ -1948,15 +2011,18 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1018</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18">
@@ -1965,15 +2031,18 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1019</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D19">
@@ -1982,15 +2051,18 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1020</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D20">
@@ -1999,15 +2071,18 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1021</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D21">
@@ -2016,15 +2091,18 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1022</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D22">
@@ -2033,15 +2111,18 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1023</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D23">
@@ -2050,15 +2131,18 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1024</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D24">
@@ -2067,15 +2151,18 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1025</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D25">
@@ -2084,15 +2171,18 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1026</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D26">
@@ -2101,15 +2191,18 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1027</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D27">
@@ -2118,15 +2211,18 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1028</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D28">
@@ -2135,15 +2231,18 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1029</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D29">
@@ -2152,15 +2251,18 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1030</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D30">
@@ -2169,15 +2271,18 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1031</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D31">
@@ -2186,15 +2291,18 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1032</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D32">
@@ -2203,15 +2311,18 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1033</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D33">
@@ -2220,15 +2331,18 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1034</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D34">
@@ -2237,15 +2351,18 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1035</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D35">
@@ -2254,15 +2371,18 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1036</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D36">
@@ -2271,15 +2391,18 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1037</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D37">
@@ -2288,15 +2411,18 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1038</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D38">
@@ -2305,15 +2431,18 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1039</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D39">
@@ -2322,15 +2451,18 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1040</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D40">
@@ -2339,15 +2471,18 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1041</v>
       </c>
       <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D41">
@@ -2356,15 +2491,18 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1042</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D42">
@@ -2373,15 +2511,18 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1043</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D43">
@@ -2390,15 +2531,18 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1044</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D44">
@@ -2407,15 +2551,18 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1045</v>
       </c>
       <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D45">
@@ -2424,15 +2571,18 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1046</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D46">
@@ -2441,15 +2591,18 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1047</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D47">
@@ -2458,15 +2611,18 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1048</v>
       </c>
       <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D48">
@@ -2475,15 +2631,18 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1049</v>
       </c>
       <c r="B49" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D49">
@@ -2492,15 +2651,18 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1050</v>
       </c>
       <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D50">
@@ -2509,15 +2671,18 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1051</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D51">
@@ -2526,15 +2691,18 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1052</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D52">
@@ -2543,15 +2711,18 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1053</v>
       </c>
       <c r="B53" t="s">
         <v>102</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D53">
@@ -2560,15 +2731,18 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1054</v>
       </c>
       <c r="B54" t="s">
         <v>104</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D54">
@@ -2577,15 +2751,18 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1055</v>
       </c>
       <c r="B55" t="s">
         <v>106</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D55">
@@ -2594,15 +2771,18 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1056</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D56">
@@ -2611,15 +2791,18 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1057</v>
       </c>
       <c r="B57" t="s">
         <v>110</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D57">
@@ -2628,15 +2811,18 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1058</v>
       </c>
       <c r="B58" t="s">
         <v>112</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D58">
@@ -2645,15 +2831,18 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1059</v>
       </c>
       <c r="B59" t="s">
         <v>114</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D59">
@@ -2662,15 +2851,18 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1060</v>
       </c>
       <c r="B60" t="s">
         <v>116</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D60">
@@ -2679,15 +2871,18 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1061</v>
       </c>
       <c r="B61" t="s">
         <v>118</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D61">
@@ -2696,15 +2891,18 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1062</v>
       </c>
       <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D62">
@@ -2713,15 +2911,18 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1063</v>
       </c>
       <c r="B63" t="s">
         <v>122</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D63">
@@ -2730,15 +2931,18 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1064</v>
       </c>
       <c r="B64" t="s">
         <v>124</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D64">
@@ -2747,15 +2951,18 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1065</v>
       </c>
       <c r="B65" t="s">
         <v>126</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D65">
@@ -2764,15 +2971,18 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1066</v>
       </c>
       <c r="B66" t="s">
         <v>128</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D66">
@@ -2781,15 +2991,18 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1067</v>
       </c>
       <c r="B67" t="s">
         <v>130</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D67">
@@ -2798,15 +3011,18 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1068</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D68">
@@ -2815,15 +3031,18 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1069</v>
       </c>
       <c r="B69" t="s">
         <v>134</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D69">
@@ -2832,15 +3051,18 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2001</v>
       </c>
       <c r="B70" t="s">
         <v>136</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D70">
@@ -2849,15 +3071,18 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2002</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D71">
@@ -2866,15 +3091,18 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2003</v>
       </c>
       <c r="B72" t="s">
         <v>140</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D72">
@@ -2883,15 +3111,18 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2004</v>
       </c>
       <c r="B73" t="s">
         <v>142</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D73">
@@ -2900,15 +3131,18 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2005</v>
       </c>
       <c r="B74" t="s">
         <v>144</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D74">
@@ -2917,15 +3151,18 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2006</v>
       </c>
       <c r="B75" t="s">
         <v>146</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D75">
@@ -2934,15 +3171,18 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2007</v>
       </c>
       <c r="B76" t="s">
         <v>148</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D76">
@@ -2951,15 +3191,18 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2008</v>
       </c>
       <c r="B77" t="s">
         <v>150</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D77">
@@ -2968,15 +3211,18 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2009</v>
       </c>
       <c r="B78" t="s">
         <v>152</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D78">
@@ -2985,15 +3231,18 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2010</v>
       </c>
       <c r="B79" t="s">
         <v>154</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D79">
@@ -3002,15 +3251,18 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2011</v>
       </c>
       <c r="B80" t="s">
         <v>156</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D80">
@@ -3019,15 +3271,18 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2012</v>
       </c>
       <c r="B81" t="s">
         <v>158</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D81">
@@ -3036,15 +3291,18 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2013</v>
       </c>
       <c r="B82" t="s">
         <v>160</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D82">
@@ -3053,15 +3311,18 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2014</v>
       </c>
       <c r="B83" t="s">
         <v>162</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D83">
@@ -3070,15 +3331,18 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2015</v>
       </c>
       <c r="B84" t="s">
         <v>164</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D84">
@@ -3087,15 +3351,18 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2016</v>
       </c>
       <c r="B85" t="s">
         <v>166</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D85">
@@ -3104,15 +3371,18 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2017</v>
       </c>
       <c r="B86" t="s">
         <v>168</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D86">
@@ -3121,15 +3391,18 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2018</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D87">
@@ -3138,15 +3411,18 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2019</v>
       </c>
       <c r="B88" t="s">
         <v>172</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D88">
@@ -3155,15 +3431,18 @@
       <c r="E88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2020</v>
       </c>
       <c r="B89" t="s">
         <v>174</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D89">
@@ -3172,15 +3451,18 @@
       <c r="E89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2021</v>
       </c>
       <c r="B90" t="s">
         <v>176</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D90">
@@ -3189,15 +3471,18 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2022</v>
       </c>
       <c r="B91" t="s">
         <v>178</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D91">
@@ -3206,15 +3491,18 @@
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2023</v>
       </c>
       <c r="B92" t="s">
         <v>180</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D92">
@@ -3223,15 +3511,18 @@
       <c r="E92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2024</v>
       </c>
       <c r="B93" t="s">
         <v>182</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D93">
@@ -3240,15 +3531,18 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2025</v>
       </c>
       <c r="B94" t="s">
         <v>184</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D94">
@@ -3257,15 +3551,18 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2026</v>
       </c>
       <c r="B95" t="s">
         <v>186</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D95">
@@ -3274,15 +3571,18 @@
       <c r="E95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2027</v>
       </c>
       <c r="B96" t="s">
         <v>188</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D96">
@@ -3291,15 +3591,18 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2028</v>
       </c>
       <c r="B97" t="s">
         <v>190</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D97">
@@ -3308,15 +3611,18 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2029</v>
       </c>
       <c r="B98" t="s">
         <v>192</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D98">
@@ -3325,15 +3631,18 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2030</v>
       </c>
       <c r="B99" t="s">
         <v>194</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D99">
@@ -3342,15 +3651,18 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2031</v>
       </c>
       <c r="B100" t="s">
         <v>196</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D100">
@@ -3359,15 +3671,18 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2032</v>
       </c>
       <c r="B101" t="s">
         <v>198</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D101">
@@ -3376,15 +3691,18 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2033</v>
       </c>
       <c r="B102" t="s">
         <v>200</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D102">
@@ -3393,15 +3711,18 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2034</v>
       </c>
       <c r="B103" t="s">
         <v>202</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D103">
@@ -3410,21 +3731,67 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9999</v>
       </c>
       <c r="B104" t="s">
         <v>204</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2035</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2036</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>0</v>
       </c>
     </row>
@@ -3432,8 +3799,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C104" r:id="rId1"/>
+    <hyperlink ref="C105:C106" r:id="rId2" display="https://greybucket.oss-cn-shenzhen.aliyuncs.com/marriage/avatar/2001.JPG?x-oss-process=style/mystyle"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>